--- a/excels/Trad MM.xlsx
+++ b/excels/Trad MM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="4"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/excels/Trad MM.xlsx
+++ b/excels/Trad MM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="1"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/excels/Trad MM.xlsx
+++ b/excels/Trad MM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="4"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="646">
   <si>
     <t>quickref</t>
   </si>
@@ -958,6 +958,1014 @@
   </si>
   <si>
     <t>Caballo de monta</t>
+  </si>
+  <si>
+    <t>Aarakocra</t>
+  </si>
+  <si>
+    <t>Aboleth</t>
+  </si>
+  <si>
+    <t>Abominable Yeti</t>
+  </si>
+  <si>
+    <t>Acolyte</t>
+  </si>
+  <si>
+    <t>Adult Black Dragon</t>
+  </si>
+  <si>
+    <t>Adult Blue Dracolich</t>
+  </si>
+  <si>
+    <t>Adult Blue Dragon</t>
+  </si>
+  <si>
+    <t>Adult Brass Dragon</t>
+  </si>
+  <si>
+    <t>Adult Bronze Dragon</t>
+  </si>
+  <si>
+    <t>Adult Copper Dragon</t>
+  </si>
+  <si>
+    <t>Adult Gold Dragon</t>
+  </si>
+  <si>
+    <t>Adult Green Dragon</t>
+  </si>
+  <si>
+    <t>Adult Red Dragon</t>
+  </si>
+  <si>
+    <t>Adult Silver Dragon</t>
+  </si>
+  <si>
+    <t>Adult White Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Black Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Blue Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Brass Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Bronze Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Copper Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Gold Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Green Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Red Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Silver Dragon</t>
+  </si>
+  <si>
+    <t>Ancient White Dragon</t>
+  </si>
+  <si>
+    <t>Androsphinx</t>
+  </si>
+  <si>
+    <t>Animated Armor</t>
+  </si>
+  <si>
+    <t>Ankheg</t>
+  </si>
+  <si>
+    <t>Arcanaloth</t>
+  </si>
+  <si>
+    <t>Archmage</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Awakened Shrub</t>
+  </si>
+  <si>
+    <t>Azer</t>
+  </si>
+  <si>
+    <t>Balor</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Bandit Captain</t>
+  </si>
+  <si>
+    <t>Banshee</t>
+  </si>
+  <si>
+    <t>Basilisk</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Behir</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>Beholder Zombie</t>
+  </si>
+  <si>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>Black Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Black Pudding</t>
+  </si>
+  <si>
+    <t>Blink Dog</t>
+  </si>
+  <si>
+    <t>Blue Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Blue Slaad</t>
+  </si>
+  <si>
+    <t>Bone Devil</t>
+  </si>
+  <si>
+    <t>Bone Naga (Guardian)</t>
+  </si>
+  <si>
+    <t>Bone Naga (Spirit)</t>
+  </si>
+  <si>
+    <t>Brass Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Bronze Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Bugbear Chief</t>
+  </si>
+  <si>
+    <t>Bulette</t>
+  </si>
+  <si>
+    <t>Bullywug</t>
+  </si>
+  <si>
+    <t>Cambion</t>
+  </si>
+  <si>
+    <t>Carrion Crawler</t>
+  </si>
+  <si>
+    <t>Centaur</t>
+  </si>
+  <si>
+    <t>Chain Devil</t>
+  </si>
+  <si>
+    <t>Chasme</t>
+  </si>
+  <si>
+    <t>Chimera</t>
+  </si>
+  <si>
+    <t>Chuul</t>
+  </si>
+  <si>
+    <t>Clay Golem</t>
+  </si>
+  <si>
+    <t>Cloaker</t>
+  </si>
+  <si>
+    <t>Cloud Giant</t>
+  </si>
+  <si>
+    <t>Cockatrice</t>
+  </si>
+  <si>
+    <t>Copper Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Couatl</t>
+  </si>
+  <si>
+    <t>Crawling Claw</t>
+  </si>
+  <si>
+    <t>Cult Fanatic</t>
+  </si>
+  <si>
+    <t>Cyclops</t>
+  </si>
+  <si>
+    <t>Dao</t>
+  </si>
+  <si>
+    <t>Darkmantle</t>
+  </si>
+  <si>
+    <t>Death Dog</t>
+  </si>
+  <si>
+    <t>Death Knight</t>
+  </si>
+  <si>
+    <t>Death Slaad</t>
+  </si>
+  <si>
+    <t>Death Tyrant</t>
+  </si>
+  <si>
+    <t>Deep Gnome (Svirfneblin)</t>
+  </si>
+  <si>
+    <t>Demilich</t>
+  </si>
+  <si>
+    <t>Deva</t>
+  </si>
+  <si>
+    <t>Displacer Beast</t>
+  </si>
+  <si>
+    <t>Djinni</t>
+  </si>
+  <si>
+    <t>Draft Horse</t>
+  </si>
+  <si>
+    <t>Dragon Turtle</t>
+  </si>
+  <si>
+    <t>Drider</t>
+  </si>
+  <si>
+    <t>Drow</t>
+  </si>
+  <si>
+    <t>Drow Elite Warrior</t>
+  </si>
+  <si>
+    <t>Drow Mage</t>
+  </si>
+  <si>
+    <t>Drow Priestess of Lolth</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>Dryad</t>
+  </si>
+  <si>
+    <t>Duergar</t>
+  </si>
+  <si>
+    <t>Duodrone</t>
+  </si>
+  <si>
+    <t>Dust Mephit</t>
+  </si>
+  <si>
+    <t>Efreeti</t>
+  </si>
+  <si>
+    <t>Empyrean</t>
+  </si>
+  <si>
+    <t>Erinyes</t>
+  </si>
+  <si>
+    <t>Ettercap</t>
+  </si>
+  <si>
+    <t>Ettin</t>
+  </si>
+  <si>
+    <t>Faerie Dragon (Blue)</t>
+  </si>
+  <si>
+    <t>Faerie Dragon (Green)</t>
+  </si>
+  <si>
+    <t>Faerie Dragon (Indigo)</t>
+  </si>
+  <si>
+    <t>Faerie Dragon (Orange)</t>
+  </si>
+  <si>
+    <t>Faerie Dragon (Red)</t>
+  </si>
+  <si>
+    <t>Faerie Dragon (Violet)</t>
+  </si>
+  <si>
+    <t>Faerie Dragon (Yellow)</t>
+  </si>
+  <si>
+    <t>Fire Giant</t>
+  </si>
+  <si>
+    <t>Fire Snake</t>
+  </si>
+  <si>
+    <t>Flesh Golem</t>
+  </si>
+  <si>
+    <t>Flying Sword</t>
+  </si>
+  <si>
+    <t>Fomorian</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>Frost Giant</t>
+  </si>
+  <si>
+    <t>Galeb Duhr</t>
+  </si>
+  <si>
+    <t>Gargoyle</t>
+  </si>
+  <si>
+    <t>Gas Spore</t>
+  </si>
+  <si>
+    <t>Gelatinous Cube</t>
+  </si>
+  <si>
+    <t>Ghast</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Giant Ape</t>
+  </si>
+  <si>
+    <t>Gibbering Mouther</t>
+  </si>
+  <si>
+    <t>Githyanki Knight</t>
+  </si>
+  <si>
+    <t>Githyanki Warrior</t>
+  </si>
+  <si>
+    <t>Githzerai Monk</t>
+  </si>
+  <si>
+    <t>Githzerai Zerth</t>
+  </si>
+  <si>
+    <t>Glabrezu</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Gnoll Fang of Yeenoghu</t>
+  </si>
+  <si>
+    <t>Gnoll Pack Lord</t>
+  </si>
+  <si>
+    <t>Goblin Boss</t>
+  </si>
+  <si>
+    <t>Gold Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Gorgon</t>
+  </si>
+  <si>
+    <t>Goristro</t>
+  </si>
+  <si>
+    <t>Gray Ooze</t>
+  </si>
+  <si>
+    <t>Gray Slaad</t>
+  </si>
+  <si>
+    <t>Green Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Green Hag</t>
+  </si>
+  <si>
+    <t>Green Slaad</t>
+  </si>
+  <si>
+    <t>Grell</t>
+  </si>
+  <si>
+    <t>Grick Alpha</t>
+  </si>
+  <si>
+    <t>Grimlock</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Guardian Naga</t>
+  </si>
+  <si>
+    <t>Gynosphinx</t>
+  </si>
+  <si>
+    <t>Half-Ogre (Ogrillon)</t>
+  </si>
+  <si>
+    <t>Half-Red Dragon Veteran</t>
+  </si>
+  <si>
+    <t>Harpy</t>
+  </si>
+  <si>
+    <t>Hawk</t>
+  </si>
+  <si>
+    <t>Hell Hound</t>
+  </si>
+  <si>
+    <t>Helmed Horror</t>
+  </si>
+  <si>
+    <t>Hezrou</t>
+  </si>
+  <si>
+    <t>Hill Giant</t>
+  </si>
+  <si>
+    <t>Hippogriff</t>
+  </si>
+  <si>
+    <t>Hobgoblin Captain</t>
+  </si>
+  <si>
+    <t>Hobgoblin Warlord</t>
+  </si>
+  <si>
+    <t>Hook Horror</t>
+  </si>
+  <si>
+    <t>Horned Devil</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Ice Devil</t>
+  </si>
+  <si>
+    <t>Ice Mephit</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Incubus</t>
+  </si>
+  <si>
+    <t>Intellect Devourer</t>
+  </si>
+  <si>
+    <t>Invisible Stalker</t>
+  </si>
+  <si>
+    <t>Iron Golem</t>
+  </si>
+  <si>
+    <t>Jackalwere</t>
+  </si>
+  <si>
+    <t>Kenku</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Kobold</t>
+  </si>
+  <si>
+    <t>Kraken</t>
+  </si>
+  <si>
+    <t>Kuo-toa</t>
+  </si>
+  <si>
+    <t>Kuo-toa Archpriest</t>
+  </si>
+  <si>
+    <t>Kuo-toa Monitor</t>
+  </si>
+  <si>
+    <t>Kuo-toa Whip</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Lemure</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Lizard</t>
+  </si>
+  <si>
+    <t>Lizard King</t>
+  </si>
+  <si>
+    <t>Lizard Queen</t>
+  </si>
+  <si>
+    <t>Lizardfolk</t>
+  </si>
+  <si>
+    <t>Lizardfolk Shaman</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Magma Mephit</t>
+  </si>
+  <si>
+    <t>Magmin</t>
+  </si>
+  <si>
+    <t>Manticore</t>
+  </si>
+  <si>
+    <t>Marid</t>
+  </si>
+  <si>
+    <t>Marilith</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Merfolk</t>
+  </si>
+  <si>
+    <t>Merrow</t>
+  </si>
+  <si>
+    <t>Mezzoloth</t>
+  </si>
+  <si>
+    <t>Mimic</t>
+  </si>
+  <si>
+    <t>Mind Flayer</t>
+  </si>
+  <si>
+    <t>Mind Flayer Arcanist</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>Minotaur Skeleton</t>
+  </si>
+  <si>
+    <t>Monodrone</t>
+  </si>
+  <si>
+    <t>Mud Mephit</t>
+  </si>
+  <si>
+    <t>Mummy</t>
+  </si>
+  <si>
+    <t>Mummy Lord</t>
+  </si>
+  <si>
+    <t>Myconid Adult</t>
+  </si>
+  <si>
+    <t>Myconid Sovereign</t>
+  </si>
+  <si>
+    <t>Myconid Sprout</t>
+  </si>
+  <si>
+    <t>Nalfeshnee</t>
+  </si>
+  <si>
+    <t>Needle Blight</t>
+  </si>
+  <si>
+    <t>Night Hag</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Nycaloth</t>
+  </si>
+  <si>
+    <t>Octopus</t>
+  </si>
+  <si>
+    <t>Ogre Zombie</t>
+  </si>
+  <si>
+    <t>Oni</t>
+  </si>
+  <si>
+    <t>Orc Eye of Gruumsh</t>
+  </si>
+  <si>
+    <t>Orc War Chief</t>
+  </si>
+  <si>
+    <t>Orog</t>
+  </si>
+  <si>
+    <t>Otyugh</t>
+  </si>
+  <si>
+    <t>Pentadrone</t>
+  </si>
+  <si>
+    <t>Phase Spider</t>
+  </si>
+  <si>
+    <t>Piercer</t>
+  </si>
+  <si>
+    <t>Pit Fiend</t>
+  </si>
+  <si>
+    <t>Pixie</t>
+  </si>
+  <si>
+    <t>Planetar</t>
+  </si>
+  <si>
+    <t>Poltergeist</t>
+  </si>
+  <si>
+    <t>Pony</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Pseudodragon</t>
+  </si>
+  <si>
+    <t>Purple Worm</t>
+  </si>
+  <si>
+    <t>Quadrone</t>
+  </si>
+  <si>
+    <t>Quaggoth</t>
+  </si>
+  <si>
+    <t>Quaggoth Spore Servant</t>
+  </si>
+  <si>
+    <t>Quaggoth Thonot</t>
+  </si>
+  <si>
+    <t>Quasit</t>
+  </si>
+  <si>
+    <t>Rakshasa</t>
+  </si>
+  <si>
+    <t>Red Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Red Slaad</t>
+  </si>
+  <si>
+    <t>Remorhaz</t>
+  </si>
+  <si>
+    <t>Revenant</t>
+  </si>
+  <si>
+    <t>Roc</t>
+  </si>
+  <si>
+    <t>Roper</t>
+  </si>
+  <si>
+    <t>Rug of Smothering</t>
+  </si>
+  <si>
+    <t>Rust Monster</t>
+  </si>
+  <si>
+    <t>Sahuagin</t>
+  </si>
+  <si>
+    <t>Sahuagin Baron</t>
+  </si>
+  <si>
+    <t>Sahuagin Priestess</t>
+  </si>
+  <si>
+    <t>Salamander</t>
+  </si>
+  <si>
+    <t>Satyr</t>
+  </si>
+  <si>
+    <t>Scarecrow</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Sea Hag</t>
+  </si>
+  <si>
+    <t>Sea Horse</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Shambling Mound</t>
+  </si>
+  <si>
+    <t>Shield Guardian</t>
+  </si>
+  <si>
+    <t>Shrieker</t>
+  </si>
+  <si>
+    <t>Silver Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Slaad Tadpole</t>
+  </si>
+  <si>
+    <t>Smoke Mephit</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Specter</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Spined Devil</t>
+  </si>
+  <si>
+    <t>Spirit Naga</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>Steam Mephit</t>
+  </si>
+  <si>
+    <t>Stone Giant</t>
+  </si>
+  <si>
+    <t>Stone Golem</t>
+  </si>
+  <si>
+    <t>Storm Giant</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>Swarm of Bats</t>
+  </si>
+  <si>
+    <t>Swarm of Beetles</t>
+  </si>
+  <si>
+    <t>Swarm of Centipedes</t>
+  </si>
+  <si>
+    <t>Swarm of Insects</t>
+  </si>
+  <si>
+    <t>Swarm of Poisonous Snakes</t>
+  </si>
+  <si>
+    <t>Swarm of Quippers</t>
+  </si>
+  <si>
+    <t>Swarm of Rats</t>
+  </si>
+  <si>
+    <t>Swarm of Ravens</t>
+  </si>
+  <si>
+    <t>Swarm of Spiders</t>
+  </si>
+  <si>
+    <t>Swarm of Wasps</t>
+  </si>
+  <si>
+    <t>Tarrasque</t>
+  </si>
+  <si>
+    <t>Thri-kreen</t>
+  </si>
+  <si>
+    <t>Thug</t>
+  </si>
+  <si>
+    <t>Treant</t>
+  </si>
+  <si>
+    <t>Tribal Warrior</t>
+  </si>
+  <si>
+    <t>Tridrone</t>
+  </si>
+  <si>
+    <t>Troglodyte</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Tyrannosaurus Rex</t>
+  </si>
+  <si>
+    <t>Ultroloth</t>
+  </si>
+  <si>
+    <t>Umber Hulk</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Vampire Spawn</t>
+  </si>
+  <si>
+    <t>Vampire Spellcaster</t>
+  </si>
+  <si>
+    <t>Vampire Warrior</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Vine Blight</t>
+  </si>
+  <si>
+    <t>Violet Fungus</t>
+  </si>
+  <si>
+    <t>Vrock</t>
+  </si>
+  <si>
+    <t>Warhorse</t>
+  </si>
+  <si>
+    <t>Warhorse Skeleton</t>
+  </si>
+  <si>
+    <t>Water Weird</t>
+  </si>
+  <si>
+    <t>Weasel</t>
+  </si>
+  <si>
+    <t>Werebear</t>
+  </si>
+  <si>
+    <t>Wereboar</t>
+  </si>
+  <si>
+    <t>Wererat</t>
+  </si>
+  <si>
+    <t>Weretiger</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>White Dragon Wyrmling</t>
+  </si>
+  <si>
+    <t>Wight</t>
+  </si>
+  <si>
+    <t>Will-o'-Wisp</t>
+  </si>
+  <si>
+    <t>Winged Kobold</t>
+  </si>
+  <si>
+    <t>Winter Wolf</t>
+  </si>
+  <si>
+    <t>Worg</t>
+  </si>
+  <si>
+    <t>Wraith</t>
+  </si>
+  <si>
+    <t>Wyvern</t>
+  </si>
+  <si>
+    <t>Xorn</t>
+  </si>
+  <si>
+    <t>Yeti</t>
+  </si>
+  <si>
+    <t>Yochlol</t>
+  </si>
+  <si>
+    <t>Young Black Dragon</t>
+  </si>
+  <si>
+    <t>Young Blue Dragon</t>
+  </si>
+  <si>
+    <t>Young Brass Dragon</t>
+  </si>
+  <si>
+    <t>Young Bronze Dragon</t>
+  </si>
+  <si>
+    <t>Young Copper Dragon</t>
+  </si>
+  <si>
+    <t>Young Gold Dragon</t>
+  </si>
+  <si>
+    <t>Young Red Dragon</t>
+  </si>
+  <si>
+    <t>Young Red Shadow Dragon</t>
+  </si>
+  <si>
+    <t>Young Remorhaz</t>
+  </si>
+  <si>
+    <t>Young Silver Dragon</t>
+  </si>
+  <si>
+    <t>Young White Dragon</t>
+  </si>
+  <si>
+    <t>Yuan-ti Abomination</t>
+  </si>
+  <si>
+    <t>Yuan-ti Malison (Type 1)</t>
+  </si>
+  <si>
+    <t>Yuan-ti Malison (Type 2)</t>
+  </si>
+  <si>
+    <t>Yuan-ti Malison (Type 3)</t>
+  </si>
+  <si>
+    <t>Yuan-ti Pureblood</t>
   </si>
 </sst>
 </file>
@@ -1396,16 +2404,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C115"/>
+  <dimension ref="B1:C451"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
@@ -1417,920 +2425,2600 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>290</v>
-      </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>291</v>
-      </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>251</v>
-      </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>292</v>
-      </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>252</v>
-      </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>253</v>
-      </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>254</v>
-      </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>255</v>
-      </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>178</v>
-      </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>226</v>
-      </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>194</v>
-      </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>293</v>
-      </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>256</v>
-      </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>129</v>
-      </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>195</v>
-      </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>164</v>
-      </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
       <c r="C36" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>220</v>
-      </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>259</v>
-      </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>221</v>
-      </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>196</v>
-      </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>296</v>
-      </c>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>197</v>
-      </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>262</v>
-      </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>298</v>
-      </c>
       <c r="C50" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>198</v>
-      </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>299</v>
-      </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>179</v>
-      </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>223</v>
-      </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>224</v>
-      </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>300</v>
-      </c>
       <c r="C58" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>301</v>
-      </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>199</v>
-      </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>225</v>
-      </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>265</v>
-      </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>200</v>
-      </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>158</v>
-      </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>302</v>
-      </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>303</v>
-      </c>
       <c r="C73" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>227</v>
-      </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>304</v>
-      </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>143</v>
-      </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>266</v>
-      </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>230</v>
-      </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>77</v>
-      </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>125</v>
-      </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>201</v>
-      </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>181</v>
-      </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>305</v>
-      </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>307</v>
-      </c>
       <c r="C97" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>308</v>
-      </c>
       <c r="C98" t="s">
-        <v>285</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>133</v>
-      </c>
       <c r="C99" t="s">
-        <v>127</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>309</v>
-      </c>
       <c r="C100" t="s">
-        <v>271</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>134</v>
-      </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>231</v>
-      </c>
       <c r="C102" t="s">
-        <v>206</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>136</v>
-      </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>95</v>
-      </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>100</v>
-      </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>268</v>
-      </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>102</v>
-      </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>169</v>
-      </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>166</v>
-      </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>106</v>
-      </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>220</v>
+      </c>
+      <c r="C147" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>258</v>
+      </c>
+      <c r="C160" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>259</v>
+      </c>
+      <c r="C161" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>260</v>
+      </c>
+      <c r="C162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>295</v>
+      </c>
+      <c r="C163" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>221</v>
+      </c>
+      <c r="C164" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>196</v>
+      </c>
+      <c r="C165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>197</v>
+      </c>
+      <c r="C167" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>261</v>
+      </c>
+      <c r="C168" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>297</v>
+      </c>
+      <c r="C169" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>262</v>
+      </c>
+      <c r="C170" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>298</v>
+      </c>
+      <c r="C171" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>222</v>
+      </c>
+      <c r="C172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>198</v>
+      </c>
+      <c r="C173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>223</v>
+      </c>
+      <c r="C176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>263</v>
+      </c>
+      <c r="C177" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>224</v>
+      </c>
+      <c r="C178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>300</v>
+      </c>
+      <c r="C179" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>301</v>
+      </c>
+      <c r="C180" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>62</v>
+      </c>
+      <c r="C181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>199</v>
+      </c>
+      <c r="C182" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>225</v>
+      </c>
+      <c r="C183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>264</v>
+      </c>
+      <c r="C184" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>265</v>
+      </c>
+      <c r="C185" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>200</v>
+      </c>
+      <c r="C186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>302</v>
+      </c>
+      <c r="C197" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>71</v>
+      </c>
+      <c r="C198" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>130</v>
+      </c>
+      <c r="C211" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>75</v>
+      </c>
+      <c r="C225" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>122</v>
+      </c>
+      <c r="C228" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>303</v>
+      </c>
+      <c r="C231" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>227</v>
+      </c>
+      <c r="C233" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>228</v>
+      </c>
+      <c r="C241" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>304</v>
+      </c>
+      <c r="C244" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>229</v>
+      </c>
+      <c r="C255" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>180</v>
+      </c>
+      <c r="C264" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>143</v>
+      </c>
+      <c r="C265" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>266</v>
+      </c>
+      <c r="C269" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>230</v>
+      </c>
+      <c r="C281" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>77</v>
+      </c>
+      <c r="C292" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C294" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>83</v>
+      </c>
+      <c r="C296" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>87</v>
+      </c>
+      <c r="C299" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>171</v>
+      </c>
+      <c r="C304" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>91</v>
+      </c>
+      <c r="C305" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>267</v>
+      </c>
+      <c r="C306" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>131</v>
+      </c>
+      <c r="C307" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>125</v>
+      </c>
+      <c r="C309" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>201</v>
+      </c>
+      <c r="C315" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>202</v>
+      </c>
+      <c r="C316" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>181</v>
+      </c>
+      <c r="C317" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>190</v>
+      </c>
+      <c r="C322" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>305</v>
+      </c>
+      <c r="C329" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>306</v>
+      </c>
+      <c r="C331" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>307</v>
+      </c>
+      <c r="C332" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>308</v>
+      </c>
+      <c r="C335" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>133</v>
+      </c>
+      <c r="C338" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>309</v>
+      </c>
+      <c r="C339" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C347" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C348" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>231</v>
+      </c>
+      <c r="C351" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>136</v>
+      </c>
+      <c r="C356" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C357" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>95</v>
+      </c>
+      <c r="C361" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>97</v>
+      </c>
+      <c r="C365" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C368" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C371" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C372" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>100</v>
+      </c>
+      <c r="C373" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C374" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C375" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C376" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C377" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C378" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C379" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C380" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C381" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C382" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C383" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C384" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C386" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C387" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C388" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C389" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C390" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>268</v>
+      </c>
+      <c r="C391" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C392" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C393" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>276</v>
+      </c>
+      <c r="C394" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C396" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C397" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>102</v>
+      </c>
+      <c r="C398" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C399" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C401" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>169</v>
+      </c>
+      <c r="C402" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C403" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C404" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C405" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C406" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C407" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C408" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C409" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C410" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>232</v>
+      </c>
+      <c r="C411" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C412" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C413" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>166</v>
+      </c>
+      <c r="C414" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C415" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C416" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C417" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C419" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C420" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C421" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C422" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C423" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C424" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C425" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C426" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>106</v>
+      </c>
+      <c r="C427" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C428" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C429" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C430" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C431" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C432" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C433" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C434" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C435" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C436" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C437" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C438" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C439" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
         <v>108</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C440" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C441" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C442" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C443" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C444" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C445" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C446" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C447" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C448" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C449" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C450" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
         <v>112</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C451" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:C50">
-    <sortState ref="B2:C115">
+    <sortState ref="B2:C451">
       <sortCondition ref="C1:C50"/>
     </sortState>
   </autoFilter>
@@ -2578,7 +5266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
